--- a/FxReportManagement/Customer.xlsx
+++ b/FxReportManagement/Customer.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Logo</t>
   </si>
   <si>
-    <t>report</t>
+    <t>OVERSIGHT INSPECTION AND TRAINING SERVICES</t>
+  </si>
+  <si>
+    <t>MAGNETIC PARTICLE INSPECTION REPORT</t>
   </si>
   <si>
     <t>Customer</t>
@@ -100,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -111,18 +114,106 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -130,13 +221,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -148,124 +352,220 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="18.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.33203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.9140625" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" t="s" s="1">
         <v>1</v>
       </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="1">
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="1">
+      <c r="H4" s="27"/>
+      <c r="I4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="36" t="s">
         <v>13</v>
       </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="33"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1">
+      <c r="A5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N5" s="50"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="1">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s" s="1">
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="67"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s" s="1">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="1">
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="80"/>
+      <c r="K7" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="84"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/FxReportManagement/Customer.xlsx
+++ b/FxReportManagement/Customer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Logo</t>
   </si>
@@ -26,13 +26,13 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Tag Gemi</t>
+    <t>Arkas</t>
   </si>
   <si>
     <t>Inspection Procedure</t>
   </si>
   <si>
-    <t>%20</t>
+    <t>Istanbul</t>
   </si>
   <si>
     <t>Page</t>
@@ -41,7 +41,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ProjectName</t>
+    <t>Project Name</t>
   </si>
   <si>
     <t>Values</t>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Inspection Place</t>
-  </si>
-  <si>
-    <t>Izmit</t>
   </si>
   <si>
     <t>Drawing No</t>
@@ -225,13 +222,13 @@
       <top style="thin"/>
     </border>
     <border>
+      <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
+      <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
@@ -240,21 +237,49 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
-      <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -357,179 +382,179 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" t="s" s="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" t="s" s="2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="18" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="35" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="36" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="33"/>
+      <c r="N4" s="61"/>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="52" t="s">
+      <c r="H5" s="72"/>
+      <c r="I5" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45" t="s">
+      <c r="J5" s="74"/>
+      <c r="K5" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="53" t="s">
+      <c r="L5" s="76"/>
+      <c r="M5" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="78"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="50"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="68" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="69" t="s">
+      <c r="H6" s="89"/>
+      <c r="I6" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62" t="s">
+      <c r="L6" s="93"/>
+      <c r="M6" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="70" t="s">
+      <c r="N6" s="95"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="67"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="86" t="s">
+      <c r="J7" s="108"/>
+      <c r="K7" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79" t="s">
+      <c r="L7" s="110"/>
+      <c r="M7" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="84"/>
+      <c r="N7" s="112"/>
     </row>
   </sheetData>
   <mergeCells>
